--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>cand_name</t>
   </si>
@@ -52,6 +52,9 @@
     <t>purl</t>
   </si>
   <si>
+    <t>twitter_widget</t>
+  </si>
+  <si>
     <t>Aspen Dunaway</t>
   </si>
   <si>
@@ -61,15 +64,7 @@
     <t>Ipsum Dolor</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>twitter.com/contextuallyjun</t>
-    </r>
+    <t>https://twitter.com/dunawayfortexas</t>
   </si>
   <si>
     <r>
@@ -83,16 +78,31 @@
     </r>
   </si>
   <si>
-    <t>yes</t>
+    <t>Photo courtesy of the candidate</t>
   </si>
   <si>
     <t>https://pbs.twimg.com/profile_images/600314410003865600/laIuu4bB.jpg</t>
   </si>
   <si>
+    <t>698630836208345088</t>
+  </si>
+  <si>
     <t>Huey Rey Fischer</t>
   </si>
   <si>
+    <t>https://twitter.com/HueyFischer</t>
+  </si>
+  <si>
+    <t>698624014843916288</t>
+  </si>
+  <si>
     <t>Gina Hinojosa</t>
+  </si>
+  <si>
+    <t>https://twitter.com/GinaForAustin</t>
+  </si>
+  <si>
+    <t>698630662484418561</t>
   </si>
   <si>
     <t>Kenton Johnson</t>
@@ -101,10 +111,28 @@
     <t>Blake Rocap</t>
   </si>
   <si>
+    <t>https://twitter.com/BlakeRocap</t>
+  </si>
+  <si>
+    <t>698630545312346112</t>
+  </si>
+  <si>
     <t>Matt Shrum</t>
   </si>
   <si>
+    <t>https://twitter.com/shrumlawaustin</t>
+  </si>
+  <si>
+    <t>698630375212322816</t>
+  </si>
+  <si>
     <t>Heather Way</t>
+  </si>
+  <si>
+    <t>https://twitter.com/hwayaustin</t>
+  </si>
+  <si>
+    <t>698630136896172032</t>
   </si>
 </sst>
 </file>
@@ -183,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -340,6 +368,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="11"/>
       </right>
@@ -574,7 +613,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -613,100 +652,100 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -727,28 +766,28 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1915,7 +1954,9 @@
       <c r="M1" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" t="s" s="5">
+        <v>13</v>
+      </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -1931,372 +1972,382 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" t="s" s="15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="23"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" t="s" s="25">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="17">
+      <c r="D3" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s" s="19">
+        <v>24</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="23"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" t="s" s="26">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="17">
+      <c r="D4" t="s" s="27">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="23"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" t="s" s="24">
+        <v>28</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="17">
+      <c r="D5" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" t="s" s="24">
+        <v>29</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" t="s" s="25">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="17">
+      <c r="D6" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="34"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" t="s" s="26">
         <v>15</v>
       </c>
-      <c r="I2" t="s" s="17">
+      <c r="D7" t="s" s="27">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s" s="19">
+        <v>34</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="39"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" t="s" s="24">
+        <v>35</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="J2" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s" s="18">
+      <c r="D8" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="M2" t="s" s="19">
+      <c r="L8" t="s" s="40">
         <v>19</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="24"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="25">
+      <c r="M8" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" t="s" s="26">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s" s="27">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="24"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="25">
-        <v>21</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" t="s" s="28">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="29">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s" s="30">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="24"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" t="s" s="15">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="24"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="25">
-        <v>23</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" t="s" s="26">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s" s="27">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="35"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="25">
-        <v>24</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" t="s" s="28">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="29">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s" s="30">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="40"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" t="s" s="15">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="M8" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="35"/>
+      <c r="N8" t="s" s="19">
+        <v>37</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="34"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="41"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -2305,26 +2356,26 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="42"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="42"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="28"/>
       <c r="P9" s="43"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="35"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="34"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="41"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -2333,12 +2384,12 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="42"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="28"/>
       <c r="P10" s="43"/>
-      <c r="Q10" s="20"/>
+      <c r="Q10" s="29"/>
       <c r="R10" s="44"/>
       <c r="S10" s="45"/>
       <c r="T10" s="8"/>
@@ -2347,11 +2398,11 @@
       <c r="W10" s="8"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="45"/>
-      <c r="Z10" s="35"/>
+      <c r="Z10" s="34"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="41"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -2367,23 +2418,23 @@
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="24"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="41"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
@@ -2393,204 +2444,204 @@
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
       <c r="R12" s="47"/>
       <c r="S12" s="48"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
       <c r="V12" s="49"/>
       <c r="W12" s="49"/>
-      <c r="X12" s="40"/>
+      <c r="X12" s="39"/>
       <c r="Y12" s="48"/>
-      <c r="Z12" s="35"/>
+      <c r="Z12" s="34"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="41"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="24"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="41"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="50"/>
-      <c r="M14" s="22"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="51"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="35"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="41"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="50"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="35"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="41"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="51"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="50"/>
-      <c r="M16" s="22"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="51"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
       <c r="Q16" s="51"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="34"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="41"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="52"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="35"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="34"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="41"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="53"/>
       <c r="L18" s="50"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="35"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="34"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="41"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="44"/>
       <c r="S19" s="45"/>
       <c r="T19" s="8"/>
@@ -2599,166 +2650,166 @@
       <c r="W19" s="8"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="45"/>
-      <c r="Z19" s="35"/>
+      <c r="Z19" s="34"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="41"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="51"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="24"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="41"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="41"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="35"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="34"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="41"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="35"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="34"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="41"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="35"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="34"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="41"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="54"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
       <c r="R25" s="44"/>
       <c r="S25" s="45"/>
       <c r="T25" s="8"/>
@@ -2767,194 +2818,194 @@
       <c r="W25" s="8"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="45"/>
-      <c r="Z25" s="35"/>
+      <c r="Z25" s="34"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="41"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="24"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="41"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="41"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="24"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="41"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="24"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="41"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="24"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="41"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="35"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="34"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="41"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
       <c r="R32" s="44"/>
       <c r="S32" s="45"/>
       <c r="T32" s="8"/>
@@ -2963,139 +3014,139 @@
       <c r="W32" s="8"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="45"/>
-      <c r="Z32" s="35"/>
+      <c r="Z32" s="34"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="41"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="50"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="24"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="41"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="24"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="41"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="24"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="41"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="24"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="56"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="31"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="30"/>
       <c r="S37" s="57"/>
       <c r="T37" s="57"/>
       <c r="U37" s="57"/>
@@ -3103,26 +3154,26 @@
       <c r="W37" s="57"/>
       <c r="X37" s="57"/>
       <c r="Y37" s="58"/>
-      <c r="Z37" s="24"/>
+      <c r="Z37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="41"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="23"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="22"/>
       <c r="R38" s="44"/>
       <c r="S38" s="45"/>
       <c r="T38" s="8"/>
@@ -3131,82 +3182,82 @@
       <c r="W38" s="8"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="45"/>
-      <c r="Z38" s="35"/>
+      <c r="Z38" s="34"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="41"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="24"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="23"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="41"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="35"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="34"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="41"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="50"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
       <c r="R41" s="44"/>
       <c r="S41" s="45"/>
       <c r="T41" s="8"/>
@@ -3215,278 +3266,278 @@
       <c r="W41" s="8"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="45"/>
-      <c r="Z41" s="35"/>
+      <c r="Z41" s="34"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="41"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
       <c r="K42" s="50"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="24"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="23"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="41"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="23"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="22"/>
       <c r="R43" s="47"/>
       <c r="S43" s="48"/>
       <c r="T43" s="49"/>
       <c r="U43" s="49"/>
       <c r="V43" s="49"/>
       <c r="W43" s="49"/>
-      <c r="X43" s="40"/>
+      <c r="X43" s="39"/>
       <c r="Y43" s="48"/>
-      <c r="Z43" s="35"/>
+      <c r="Z43" s="34"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="59"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="50"/>
-      <c r="M44" s="22"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="51"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="24"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="23"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="41"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
       <c r="K45" s="50"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="35"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="34"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="41"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="35"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="34"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="41"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="35"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="34"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="41"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="35"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="34"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="41"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
       <c r="N49" s="51"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="35"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="34"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="41"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="35"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="36"/>
+      <c r="Z50" s="34"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="41"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="23"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="22"/>
       <c r="N51" s="51"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
       <c r="R51" s="44"/>
       <c r="S51" s="45"/>
       <c r="T51" s="8"/>
@@ -3495,166 +3546,166 @@
       <c r="W51" s="8"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="45"/>
-      <c r="Z51" s="35"/>
+      <c r="Z51" s="34"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="41"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="24"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="23"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="41"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="24"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="23"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="41"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="32"/>
-      <c r="Z54" s="35"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="31"/>
+      <c r="Z54" s="34"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="41"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="35"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="34"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="41"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="35"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="34"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="41"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="23"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="22"/>
       <c r="N57" s="60"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
       <c r="R57" s="44"/>
       <c r="S57" s="45"/>
       <c r="T57" s="8"/>
@@ -3663,287 +3714,287 @@
       <c r="W57" s="8"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="45"/>
-      <c r="Z57" s="35"/>
+      <c r="Z57" s="34"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="41"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="24"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="23"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="41"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="24"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="23"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="41"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="24"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="23"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="41"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="24"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="23"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="41"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="24"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="23"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="41"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="24"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="23"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="41"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="24"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="23"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="41"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="22"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="24"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="23"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="41"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="24"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="23"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="41"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="24"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="23"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="61"/>
@@ -3975,20 +4026,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="K2" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="J3" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="K3" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="J4" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="K4" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="J5" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="K5" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="J6" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="K6" r:id="rId10" location="" tooltip="" display=""/>
-    <hyperlink ref="J7" r:id="rId11" location="" tooltip="" display=""/>
-    <hyperlink ref="K7" r:id="rId12" location="" tooltip="" display=""/>
-    <hyperlink ref="J8" r:id="rId13" location="" tooltip="" display=""/>
-    <hyperlink ref="K8" r:id="rId14" location="" tooltip="" display=""/>
+    <hyperlink ref="K2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="K3" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="K4" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="K5" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="K6" r:id="rId5" location="" tooltip="" display=""/>
+    <hyperlink ref="K7" r:id="rId6" location="" tooltip="" display=""/>
+    <hyperlink ref="K8" r:id="rId7" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>cand_name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>twitter_widget</t>
+  </si>
+  <si>
+    <t>fb</t>
   </si>
   <si>
     <t>Aspen Dunaway</t>
@@ -1957,7 +1960,9 @@
       <c r="N1" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="O1" s="6"/>
+      <c r="O1" t="s" s="5">
+        <v>14</v>
+      </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="7"/>
@@ -1972,44 +1977,44 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" t="s" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s" s="17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="21"/>
@@ -2026,44 +2031,44 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" t="s" s="25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s" s="17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s" s="19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="20"/>
       <c r="P3" s="21"/>
@@ -2080,44 +2085,44 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s" s="26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s" s="27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s" s="17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s" s="19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4" s="21"/>
@@ -2134,39 +2139,39 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" t="s" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" t="s" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="20"/>
@@ -2184,44 +2189,44 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" t="s" s="25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s" s="17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s" s="19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O6" s="20"/>
       <c r="P6" s="21"/>
@@ -2238,44 +2243,44 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s" s="24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" t="s" s="26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s" s="27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s" s="17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s" s="19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O7" s="20"/>
       <c r="P7" s="21"/>
@@ -2292,44 +2297,44 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" t="s" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s" s="17">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s" s="40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s" s="19">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O8" s="20"/>
       <c r="P8" s="21"/>

--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>cand_name</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>Matt Shrum</t>
-  </si>
-  <si>
-    <t>https://twitter.com/shrumlawaustin</t>
-  </si>
-  <si>
-    <t>698630375212322816</t>
   </si>
   <si>
     <t>Heather Way</t>
@@ -2267,9 +2261,7 @@
       <c r="I7" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="J7" t="s" s="17">
-        <v>34</v>
-      </c>
+      <c r="J7" s="28"/>
       <c r="K7" t="s" s="17">
         <v>19</v>
       </c>
@@ -2279,9 +2271,7 @@
       <c r="M7" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="N7" t="s" s="19">
-        <v>35</v>
-      </c>
+      <c r="N7" s="29"/>
       <c r="O7" s="20"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
@@ -2297,7 +2287,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s" s="24">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" t="s" s="15">
@@ -2322,7 +2312,7 @@
         <v>17</v>
       </c>
       <c r="J8" t="s" s="17">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s" s="17">
         <v>19</v>
@@ -2334,7 +2324,7 @@
         <v>21</v>
       </c>
       <c r="N8" t="s" s="19">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O8" s="20"/>
       <c r="P8" s="21"/>

--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>cand_name</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Aspen Dunaway</t>
   </si>
   <si>
-    <t>Lorem</t>
+    <t>Attorney</t>
   </si>
   <si>
     <t>Ipsum Dolor</t>
@@ -70,18 +70,10 @@
     <t>https://twitter.com/dunawayfortexas</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>http://www.google.com</t>
-    </r>
-  </si>
-  <si>
-    <t>Photo courtesy of the candidate</t>
+    <t>http://www.dunawayfortexas.com</t>
+  </si>
+  <si>
+    <t>Rachel Zein</t>
   </si>
   <si>
     <t>https://pbs.twimg.com/profile_images/600314410003865600/laIuu4bB.jpg</t>
@@ -93,18 +85,30 @@
     <t>Huey Rey Fischer</t>
   </si>
   <si>
+    <t>Former legislative aide</t>
+  </si>
+  <si>
     <t>https://twitter.com/HueyFischer</t>
   </si>
   <si>
+    <t>http://hueyfischer.com</t>
+  </si>
+  <si>
     <t>698624014843916288</t>
   </si>
   <si>
     <t>Gina Hinojosa</t>
   </si>
   <si>
+    <t>Austin ISD School Board member</t>
+  </si>
+  <si>
     <t>https://twitter.com/GinaForAustin</t>
   </si>
   <si>
+    <t>http://www.ginaforaustin.com</t>
+  </si>
+  <si>
     <t>698630662484418561</t>
   </si>
   <si>
@@ -114,19 +118,40 @@
     <t>Blake Rocap</t>
   </si>
   <si>
+    <t>Former NARAL Pro-Choice Texas counsel</t>
+  </si>
+  <si>
     <t>https://twitter.com/BlakeRocap</t>
   </si>
   <si>
+    <t>http://www.blakerocap.com</t>
+  </si>
+  <si>
+    <t>Blake Rocap campaign</t>
+  </si>
+  <si>
     <t>698630545312346112</t>
   </si>
   <si>
     <t>Matt Shrum</t>
   </si>
   <si>
+    <t>http://www.mattshrumfortexas.com</t>
+  </si>
+  <si>
     <t>Heather Way</t>
   </si>
   <si>
+    <t>University of Texas law professor</t>
+  </si>
+  <si>
     <t>https://twitter.com/hwayaustin</t>
+  </si>
+  <si>
+    <t>http://www.voteheatherway.com</t>
+  </si>
+  <si>
+    <t>Heather Way campaign</t>
   </si>
   <si>
     <t>698630136896172032</t>
@@ -161,20 +186,20 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="13"/>
       <name val="Arial"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="Arial"/>
     </font>
     <font>
       <u val="single"/>
-      <sz val="11"/>
-      <color indexed="13"/>
+      <sz val="10"/>
+      <color indexed="14"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -184,7 +209,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="14"/>
+      <color indexed="13"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -649,10 +674,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -661,121 +686,121 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -808,8 +833,8 @@
       <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffff9900"/>
+      <rgbColor rgb="ff222222"/>
       <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff222222"/>
       <rgbColor rgb="ff232323"/>
       <rgbColor rgb="ff1155cc"/>
     </indexedColors>
@@ -2029,7 +2054,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" t="s" s="25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s" s="17">
         <v>17</v>
@@ -2050,10 +2075,10 @@
         <v>17</v>
       </c>
       <c r="J3" t="s" s="17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s" s="17">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s" s="18">
         <v>20</v>
@@ -2062,7 +2087,7 @@
         <v>21</v>
       </c>
       <c r="N3" t="s" s="19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O3" s="20"/>
       <c r="P3" s="21"/>
@@ -2079,11 +2104,11 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s" s="24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s" s="26">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s" s="27">
         <v>17</v>
@@ -2104,10 +2129,10 @@
         <v>17</v>
       </c>
       <c r="J4" t="s" s="17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s" s="17">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="18">
         <v>20</v>
@@ -2116,7 +2141,7 @@
         <v>21</v>
       </c>
       <c r="N4" t="s" s="19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4" s="21"/>
@@ -2133,7 +2158,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s" s="24">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" t="s" s="15">
@@ -2158,12 +2183,8 @@
         <v>17</v>
       </c>
       <c r="J5" s="28"/>
-      <c r="K5" t="s" s="17">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s" s="18">
-        <v>20</v>
-      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
       <c r="M5" t="s" s="19">
         <v>21</v>
       </c>
@@ -2183,11 +2204,11 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s" s="24">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" t="s" s="25">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="17">
         <v>17</v>
@@ -2208,19 +2229,19 @@
         <v>17</v>
       </c>
       <c r="J6" t="s" s="17">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s" s="17">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s" s="18">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s" s="19">
         <v>21</v>
       </c>
       <c r="N6" t="s" s="19">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O6" s="20"/>
       <c r="P6" s="21"/>
@@ -2237,7 +2258,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s" s="24">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" t="s" s="26">
@@ -2263,11 +2284,9 @@
       </c>
       <c r="J7" s="28"/>
       <c r="K7" t="s" s="17">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s" s="18">
-        <v>20</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L7" s="18"/>
       <c r="M7" t="s" s="19">
         <v>21</v>
       </c>
@@ -2287,11 +2306,11 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s" s="24">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" t="s" s="15">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s" s="16">
         <v>17</v>
@@ -2312,19 +2331,19 @@
         <v>17</v>
       </c>
       <c r="J8" t="s" s="17">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s" s="17">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s" s="40">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s" s="19">
         <v>21</v>
       </c>
       <c r="N8" t="s" s="19">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O8" s="20"/>
       <c r="P8" s="21"/>
@@ -4020,15 +4039,6 @@
       <c r="Z68" s="63"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="K3" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="K4" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="K5" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="K6" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="K7" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="K8" r:id="rId7" location="" tooltip="" display=""/>
-  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>cand_name</t>
   </si>
   <si>
-    <t>WINNER</t>
+    <t>id</t>
   </si>
   <si>
     <t>occu</t>
@@ -61,10 +61,25 @@
     <t>Aspen Dunaway</t>
   </si>
   <si>
+    <t>dunaway</t>
+  </si>
+  <si>
     <t>Attorney</t>
   </si>
   <si>
-    <t>Ipsum Dolor</t>
+    <t>The candidate has not provided the Daily Texan with this information.</t>
+  </si>
+  <si>
+    <t>I came out of college in Texas with more than 50,000 in student loan debt.  I am fortunate to have them now paid off, but many of our young adults are not and will continue to struggle with making payments, and having looming debt over their heads. I am proposing a freeze on state university tuitions for a couple of years. I am also willing to look into re-regulating tuition.  I want to raise the minimum wage tax to at least $10.10 and make the steps needed to decriminalize marijuana.  I am also proposing a Tenant’s Bill of Rights. Texas has some protections in statute but they need to be clarified and disclosed to renters. Some provisions to the Bill of Rights include: security deposit not exceeding one month’s rent, a tenant right to privacy statute and adding to discrimination protection to include sexual orientation and marital status.  All these and more I have provided in my Formula for HD 49 and promised to file legislation on, fight for and support when elected.  I want what is best for the State but specifically I will be in that legislature representing and seeking what is best for HD 49, including UT and its students.  I will work with and alongside all constituents from students and young professionals to seniors and the disabled. I based this campaign on keeping this seat in the hands of the people and that is what I intend to do.</t>
+  </si>
+  <si>
+    <t>Property tax relief</t>
+  </si>
+  <si>
+    <t>Tuition freeze/regulation</t>
+  </si>
+  <si>
+    <t>Decriminalizing marijuana</t>
   </si>
   <si>
     <t>https://twitter.com/dunawayfortexas</t>
@@ -76,7 +91,7 @@
     <t>Rachel Zein</t>
   </si>
   <si>
-    <t>https://pbs.twimg.com/profile_images/600314410003865600/laIuu4bB.jpg</t>
+    <t>2016-02-16_Aspen_Dunaway_Rachel.Zein12107.jpg</t>
   </si>
   <si>
     <t>698630836208345088</t>
@@ -85,6 +100,9 @@
     <t>Huey Rey Fischer</t>
   </si>
   <si>
+    <t>fischer</t>
+  </si>
+  <si>
     <t>Former legislative aide</t>
   </si>
   <si>
@@ -94,12 +112,18 @@
     <t>http://hueyfischer.com</t>
   </si>
   <si>
+    <t>2016-02-12_Huey_Rey_Fischer_Rachel.Zein11974.jpg</t>
+  </si>
+  <si>
     <t>698624014843916288</t>
   </si>
   <si>
     <t>Gina Hinojosa</t>
   </si>
   <si>
+    <t>hinojosa</t>
+  </si>
+  <si>
     <t>Austin ISD School Board member</t>
   </si>
   <si>
@@ -109,18 +133,39 @@
     <t>http://www.ginaforaustin.com</t>
   </si>
   <si>
+    <t>2016-02-15_Gina_hinojosa_portrait_Rachel.Zein12098.jpg</t>
+  </si>
+  <si>
     <t>698630662484418561</t>
   </si>
   <si>
     <t>Kenton Johnson</t>
   </si>
   <si>
+    <t>johnson</t>
+  </si>
+  <si>
     <t>Blake Rocap</t>
   </si>
   <si>
+    <t>rocap</t>
+  </si>
+  <si>
     <t>Former NARAL Pro-Choice Texas counsel</t>
   </si>
   <si>
+    <t>Blake is running because he understands that the challenges facing our state are immense. Republican leadership has sacrificed necessary infrastructure investment at the altar of “small government” while inserting themselves into our families’ most personal decisions about marriage and reproduction. These issues are too big for on-the-job training. Blake has spent nearly a decade doing the hard work fighting for our values inside the legislature for NARAL Pro-Choice Texas and the ACLU of Texas; he has the proven experience to help stop this extremist agenda.</t>
+  </si>
+  <si>
+    <t>Expanding Medicaid and providing healthcare access to all Texans</t>
+  </si>
+  <si>
+    <t>Reforming public education finance to restore ALL the cuts the legislature has made</t>
+  </si>
+  <si>
+    <t>Halting Republican Extremists attacks on our families and the environment</t>
+  </si>
+  <si>
     <t>https://twitter.com/BlakeRocap</t>
   </si>
   <si>
@@ -136,15 +181,36 @@
     <t>Matt Shrum</t>
   </si>
   <si>
+    <t>shrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of the 7 candidates running, I am the most pragmatic which will make me the most effective advocate for district 49.  My experience at the Capitol tells me that in order to get things done over there, you have to be willing and able to work with the leadership.  That means holding on to your core values while reaching across the aisle and making compromises. </t>
+  </si>
+  <si>
     <t>http://www.mattshrumfortexas.com</t>
   </si>
   <si>
     <t>Heather Way</t>
   </si>
   <si>
+    <t>way</t>
+  </si>
+  <si>
     <t>University of Texas law professor</t>
   </si>
   <si>
+    <t xml:space="preserve">As a UT Law professor, I have spent the past 10 years working closely with students and supporting their academic and personal growth (I was also a UT student for 7 years).  On a daily basis, I see UT students, staff, and faculty struggling to cope with dwindling recourses in an increasingly unaffordable city. As the Representative for District 49, I will be a champion at the Capitol for issues that are important to UT students, including increasing state investment in universities and making college affordable for all students, banning guns from our campus, expanding access to affordable rental housing, increasing student participation in the political process, and protecting women’s reproductive rights.&lt;br&gt;&lt;br&gt; I have dedicated my career to fighting for people and working to increase social and economic justice in our society.  I have a long successful record of standing up for our community here in Austin and at the Legislature—and getting results. I have worked as a legislative aide at the Capitol and have spent many years at the Capitol as a policy reformer.&lt;br&gt;&lt;br&gt;  I have the breadth of experience, knowledge, and dedication needed to achieve real reforms at the Capitol. </t>
+  </si>
+  <si>
+    <t>Increasing economic opportunity and closing our society’s growing economic divides—through increasing investments in education, tax reform, adopting a living wage, affordable housing, and more</t>
+  </si>
+  <si>
+    <t>Gun law reform—getting guns out of our classrooms and enacting sane gun control laws</t>
+  </si>
+  <si>
+    <t>Environmental reforms—protecting our water, air, and green spaces</t>
+  </si>
+  <si>
     <t>https://twitter.com/hwayaustin</t>
   </si>
   <si>
@@ -152,6 +218,9 @@
   </si>
   <si>
     <t>Heather Way campaign</t>
+  </si>
+  <si>
+    <t>heatherway.jpg</t>
   </si>
   <si>
     <t>698630136896172032</t>
@@ -619,7 +688,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -660,9 +729,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1998,2045 +2064,2039 @@
       <c r="A2" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" t="s" s="15">
+      <c r="B2" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="16">
+      <c r="C2" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="17">
+      <c r="D2" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="22"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" t="s" s="23">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="24">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s" s="24">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s" s="16">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="22"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="24">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s" s="25">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="16">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s" s="16">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="22"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" t="s" s="23">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="24">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="17">
+      <c r="D5" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="22"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s" s="24">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s" s="24">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" t="s" s="16">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s" s="16">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="16">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s" s="16">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s" s="16">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s" s="17">
+        <v>53</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" t="s" s="18">
+        <v>54</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="33"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" t="s" s="23">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s" s="16">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s" s="25">
         <v>17</v>
       </c>
-      <c r="G2" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s" s="17">
+      <c r="D7" t="s" s="26">
         <v>18</v>
       </c>
-      <c r="K2" t="s" s="17">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s" s="19">
-        <v>22</v>
-      </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="23"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="24">
-        <v>23</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" t="s" s="25">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s" s="17">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s" s="17">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="23"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="24">
-        <v>28</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" t="s" s="26">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s" s="27">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s" s="19">
-        <v>32</v>
-      </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="23"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="24">
-        <v>33</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="16">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="23"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="24">
-        <v>34</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" t="s" s="25">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s" s="18">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s" s="19">
-        <v>39</v>
-      </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="34"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="24">
-        <v>40</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" t="s" s="26">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s" s="27">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="39"/>
+      <c r="E7" s="16"/>
+      <c r="F7" t="s" s="16">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" t="s" s="16">
+        <v>58</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="38"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s" s="16">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s" s="17">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="L8" t="s" s="40">
-        <v>46</v>
-      </c>
-      <c r="M8" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="34"/>
+      <c r="A8" t="s" s="23">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s" s="24">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s" s="16">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s" s="16">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s" s="16">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s" s="39">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s" s="18">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s" s="18">
+        <v>70</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="33"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="34"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="33"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="45"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="44"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="9"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="34"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="33"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="23"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="34"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="33"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="23"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="34"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="33"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="34"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="33"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="34"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="33"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="34"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="33"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="34"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="33"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="45"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="34"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="33"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="23"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="23"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="22"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="34"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="33"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="34"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="33"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="34"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="33"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="44"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="34"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="33"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="23"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="23"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="23"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="23"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="23"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="22"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="34"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="33"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="45"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="44"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="9"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="34"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="33"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="23"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="23"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="22"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="23"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="22"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="23"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="22"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="58"/>
-      <c r="Z37" s="23"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="41"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="45"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="44"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="X38" s="9"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="34"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="33"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="23"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="41"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="34"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="33"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="41"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="45"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="44"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="9"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="34"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="33"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="41"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="23"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="41"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="34"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="33"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="59"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="23"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="41"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="34"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="33"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="41"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="34"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="33"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="41"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="34"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="33"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="41"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="34"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="33"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="41"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="34"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="33"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="41"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="34"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="33"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="41"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="45"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="44"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
       <c r="V51" s="8"/>
       <c r="W51" s="8"/>
       <c r="X51" s="9"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="34"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="33"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="41"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="23"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="41"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="23"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="41"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="32"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="34"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="33"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="41"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="34"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="33"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="41"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="34"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="33"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="41"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="44"/>
-      <c r="S57" s="45"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="44"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
       <c r="X57" s="9"/>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="34"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="33"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="41"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="23"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="41"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="23"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="41"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="23"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="41"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="23"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="41"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="23"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="41"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="23"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="41"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="23"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="41"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="23"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="41"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="23"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="41"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="23"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="22"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="61"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="62"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="62"/>
-      <c r="N68" s="62"/>
-      <c r="O68" s="62"/>
-      <c r="P68" s="62"/>
-      <c r="Q68" s="62"/>
-      <c r="R68" s="62"/>
-      <c r="S68" s="62"/>
-      <c r="T68" s="62"/>
-      <c r="U68" s="62"/>
-      <c r="V68" s="62"/>
-      <c r="W68" s="62"/>
-      <c r="X68" s="62"/>
-      <c r="Y68" s="62"/>
-      <c r="Z68" s="63"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="61"/>
+      <c r="U68" s="61"/>
+      <c r="V68" s="61"/>
+      <c r="W68" s="61"/>
+      <c r="X68" s="61"/>
+      <c r="Y68" s="61"/>
+      <c r="Z68" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>cand_name</t>
   </si>
@@ -70,6 +70,33 @@
     <t>The candidate has not provided the Daily Texan with this information.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>To find a full list of Aspen's endorsers, click &lt;a href=</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>http://www.dunawayfortexas.com/endorsements.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&gt;here&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
     <t>I came out of college in Texas with more than 50,000 in student loan debt.  I am fortunate to have them now paid off, but many of our young adults are not and will continue to struggle with making payments, and having looming debt over their heads. I am proposing a freeze on state university tuitions for a couple of years. I am also willing to look into re-regulating tuition.  I want to raise the minimum wage tax to at least $10.10 and make the steps needed to decriminalize marijuana.  I am also proposing a Tenant’s Bill of Rights. Texas has some protections in statute but they need to be clarified and disclosed to renters. Some provisions to the Bill of Rights include: security deposit not exceeding one month’s rent, a tenant right to privacy statute and adding to discrimination protection to include sexual orientation and marital status.  All these and more I have provided in my Formula for HD 49 and promised to file legislation on, fight for and support when elected.  I want what is best for the State but specifically I will be in that legislature representing and seeking what is best for HD 49, including UT and its students.  I will work with and alongside all constituents from students and young professionals to seniors and the disabled. I based this campaign on keeping this seat in the hands of the people and that is what I intend to do.</t>
   </si>
   <si>
@@ -97,6 +124,9 @@
     <t>698630836208345088</t>
   </si>
   <si>
+    <t>https://www.facebook.com/DunawayForTexas/?fref=ts</t>
+  </si>
+  <si>
     <t>Huey Rey Fischer</t>
   </si>
   <si>
@@ -106,6 +136,45 @@
     <t>Former legislative aide</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>University Democrats, Stonewall Democrats of Austin, The Victory Fund, Farm and Ranch Freedom Alliance, Austin Young Democrats. To find a full list of Huey's endorsers, click &lt;a href=</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>http://hueyfischer.com/supporters/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&gt;here&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>I’m different because these fights are personal for me. I am the recent UT grad who has significant student loan debt. I relied on Planned Parenthood for some health care screenings in college when I didn’t have health insurance. I can personally attest to the rising rent we are feeling in West and North Campus.&lt;br&gt;&lt;br&gt;I am the 23-year old, queer Latino taking on six lawyers for this seat. Students have been shut out of the Capitol for too long, and I am ready to push back with an agenda that is meaningful for the Forty Acres.&lt;br&gt;&lt;br&gt;The Legislature should fully fund the university to tackle the student debt crisis. We need to make student neighborhoods affordable again. We must begin a serious conversation about policies that will effectively end sexual assaults on campus. We have to keep guns out of our classrooms.&lt;br&gt;&lt;br&gt;Students will decide this election, and I am proud to be their choice.</t>
+  </si>
+  <si>
+    <t>Making Austin affordable</t>
+  </si>
+  <si>
+    <t>Tackling student debt</t>
+  </si>
+  <si>
+    <t>Fighting for social justice</t>
+  </si>
+  <si>
     <t>https://twitter.com/HueyFischer</t>
   </si>
   <si>
@@ -118,6 +187,9 @@
     <t>698624014843916288</t>
   </si>
   <si>
+    <t>https://www.facebook.com/HueyReyFischer/?fref=ts</t>
+  </si>
+  <si>
     <t>Gina Hinojosa</t>
   </si>
   <si>
@@ -127,6 +199,45 @@
     <t>Austin ISD School Board member</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>The Austin American-Statesman, Central Austin Democrats, Workers Defense Action Fund, Austin Chronicle, National Women's Political Caucus, West Austin Democrats. To find a full list of Gina's endorsers, click &lt;a href=</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>http://www.ginaforaustin.com/new-page/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&gt;here&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>We must not let Republicans roll back the clock on civil rights, women’s health, voting rights, the environment, and education – all issues that have a significant impact on the lives and future of students. I have a proven record of working successfully with coalitions to get things done, and I will collaborate with student organizations to fight for progressive issues at the State Capitol.&lt;br&gt;&lt;br&gt;I will work to make college opportunities affordable and more accessible for all students and ease the burden of student debt.&lt;br&gt;&lt;br&gt;The Texas Legislature is shortchanging young people and limiting their opportunities for an affordable college education and meaningful careers.  In the 1970’s, 85% of the education costs at the University of Texas were paid with state funds.  Today, the state share is less than 20%.  Students are caught in the squeeze, and the result is unprecedented student debt that has a profound impact on the social and economic mobility of young people today.&lt;br&gt;&lt;br&gt;I will SUPPORT:  Increased funding for the Texas Grants to increase college access for eligible students. OPPOSE:  Efforts to deny Dreamers in-state tuition and a shot at their future. SUPPORT:  Increased state share of costs for higher education to drive down tuition and ease student debt. SUPPORT:  Efforts to increase affordable student housing at UT.&lt;br&gt;&lt;br&gt;In addition, students are a key part of a progressive statewide coalition on issues such as: the environment - to address climate change; gun violence – to repeal campus carry; women’s reproductive rights - to fully restore funds to Planned Parenthood; and voting rights – to repeal voter ID laws.</t>
+  </si>
+  <si>
+    <t>We must end the epidemic of gun violence in Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We must stop shortchanging students </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We must restore full funding to Planned Parenthood </t>
+  </si>
+  <si>
     <t>https://twitter.com/GinaForAustin</t>
   </si>
   <si>
@@ -139,12 +250,21 @@
     <t>698630662484418561</t>
   </si>
   <si>
+    <t>https://www.facebook.com/GinaForAustin/?fref=ts</t>
+  </si>
+  <si>
     <t>Kenton Johnson</t>
   </si>
   <si>
     <t>johnson</t>
   </si>
   <si>
+    <t>default.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kenton-D-Johnson-1660361334238015/?fref=ts</t>
+  </si>
+  <si>
     <t>Blake Rocap</t>
   </si>
   <si>
@@ -175,21 +295,39 @@
     <t>Blake Rocap campaign</t>
   </si>
   <si>
+    <t>rocap.jpg</t>
+  </si>
+  <si>
     <t>698630545312346112</t>
   </si>
   <si>
+    <t>https://www.facebook.com/VoteRocap/?fref=ts</t>
+  </si>
+  <si>
     <t>Matt Shrum</t>
   </si>
   <si>
     <t>shrum</t>
   </si>
   <si>
-    <t xml:space="preserve">Of the 7 candidates running, I am the most pragmatic which will make me the most effective advocate for district 49.  My experience at the Capitol tells me that in order to get things done over there, you have to be willing and able to work with the leadership.  That means holding on to your core values while reaching across the aisle and making compromises. </t>
+    <t xml:space="preserve">I do not have any of the traditional democratic club endorsements.  Nor have I actively sought them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of the seven candidates running, I am the most pragmatic which will make me the most effective advocate for district 49. My experience at the Capitol tells me that in order to get things done over there, you have to be willing and able to work with the leadership. That means holding on to your core values while reaching across the aisle and making compromises. </t>
   </si>
   <si>
     <t>http://www.mattshrumfortexas.com</t>
   </si>
   <si>
+    <t>Matt Shrum campaign</t>
+  </si>
+  <si>
+    <t>shrum.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MattShrumforTexasHouse/?fref=ts</t>
+  </si>
+  <si>
     <t>Heather Way</t>
   </si>
   <si>
@@ -199,7 +337,34 @@
     <t>University of Texas law professor</t>
   </si>
   <si>
-    <t xml:space="preserve">As a UT Law professor, I have spent the past 10 years working closely with students and supporting their academic and personal growth (I was also a UT student for 7 years).  On a daily basis, I see UT students, staff, and faculty struggling to cope with dwindling recourses in an increasingly unaffordable city. As the Representative for District 49, I will be a champion at the Capitol for issues that are important to UT students, including increasing state investment in universities and making college affordable for all students, banning guns from our campus, expanding access to affordable rental housing, increasing student participation in the political process, and protecting women’s reproductive rights.&lt;br&gt;&lt;br&gt; I have dedicated my career to fighting for people and working to increase social and economic justice in our society.  I have a long successful record of standing up for our community here in Austin and at the Legislature—and getting results. I have worked as a legislative aide at the Capitol and have spent many years at the Capitol as a policy reformer.&lt;br&gt;&lt;br&gt;  I have the breadth of experience, knowledge, and dedication needed to achieve real reforms at the Capitol. </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>To find a full list of Heather's endorsers, click &lt;a href=</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>http://www.voteheatherway.com/supporters/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&gt;here&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>As a UT Law professor, I have spent the past 10 years working closely with students and supporting their academic and personal growth (I was also a UT student for seven years).  On a daily basis, I see UT students, staff, and faculty struggling to cope with dwindling recourses in an increasingly unaffordable city. As the Representative for District 49, I will be a champion at the Capitol for issues that are important to UT students, including increasing state investment in universities and making college affordable for all students, banning guns from our campus, expanding access to affordable rental housing, increasing student participation in the political process, and protecting women’s reproductive rights.&lt;br&gt;&lt;br&gt;I have dedicated my career to fighting for people and working to increase social and economic justice in our society.  I have a long successful record of standing up for our community here in Austin and at the Legislature—and getting results. I have worked as a legislative aide at the Capitol and have spent many years at the Capitol as a policy reformer.  I have the breadth of experience, knowledge, and dedication needed to achieve real reforms at the Capitol. &lt;br&gt;&lt;br&gt;I am also the only candidate stressing that we also need deep structural reforms to our political system—and leaders strong enough to stand up to the status quo. I will fight to get rid of corporate money in politics, increase transparency in government, and ban sweetheart deals for donors.</t>
   </si>
   <si>
     <t>Increasing economic opportunity and closing our society’s growing economic divides—through increasing investments in education, tax reform, adopting a living wage, affordable housing, and more</t>
@@ -224,6 +389,9 @@
   </si>
   <si>
     <t>698630136896172032</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/voteheatherway/?fref=ts</t>
   </si>
 </sst>
 </file>
@@ -255,20 +423,20 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u val="single"/>
+      <sz val="10"/>
       <color indexed="13"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="Arial"/>
     </font>
     <font>
       <u val="single"/>
-      <sz val="10"/>
-      <color indexed="14"/>
+      <sz val="11"/>
+      <color indexed="13"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -278,7 +446,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -302,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -460,6 +628,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -488,11 +665,20 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -688,7 +874,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -740,142 +926,154 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -899,8 +1097,8 @@
       <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffff9900"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff222222"/>
-      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff232323"/>
       <rgbColor rgb="ff1155cc"/>
     </indexedColors>
@@ -2073,35 +2271,39 @@
       <c r="D2" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" t="s" s="16">
+      <c r="E2" t="s" s="16">
         <v>19</v>
       </c>
+      <c r="F2" t="s" s="17">
+        <v>20</v>
+      </c>
       <c r="G2" t="s" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s" s="17">
         <v>25</v>
       </c>
-      <c r="M2" t="s" s="18">
+      <c r="L2" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="N2" t="s" s="18">
+      <c r="M2" t="s" s="19">
         <v>27</v>
       </c>
-      <c r="O2" s="19"/>
+      <c r="N2" t="s" s="19">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s" s="16">
+        <v>29</v>
+      </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="20"/>
@@ -2116,46 +2318,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s" s="23">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="24">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s" s="24">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s" s="16">
-        <v>18</v>
+      <c r="E3" t="s" s="25">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s" s="26">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s" s="27">
+        <v>35</v>
       </c>
       <c r="H3" t="s" s="16">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s" s="16">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s" s="16">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s" s="17">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s" s="18">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s" s="18">
-        <v>34</v>
-      </c>
-      <c r="O3" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="L3" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s" s="16">
+        <v>42</v>
+      </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="20"/>
@@ -2170,46 +2376,50 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s" s="23">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="24">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s" s="25">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s" s="26">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s" s="28">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" t="s" s="16">
-        <v>18</v>
+      <c r="E4" t="s" s="17">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>47</v>
       </c>
       <c r="G4" t="s" s="16">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="16">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s" s="16">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="16">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="16">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s" s="17">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s" s="18">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s" s="18">
-        <v>41</v>
-      </c>
-      <c r="O4" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="L4" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s" s="19">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s" s="19">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s" s="16">
+        <v>55</v>
+      </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="20"/>
@@ -2224,10 +2434,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s" s="23">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s" s="24">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s" s="14">
         <v>17</v>
@@ -2235,8 +2445,10 @@
       <c r="D5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" t="s" s="16">
+      <c r="E5" t="s" s="29">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="15">
         <v>18</v>
       </c>
       <c r="G5" t="s" s="16">
@@ -2248,12 +2460,16 @@
       <c r="I5" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="19"/>
+      <c r="L5" s="18"/>
+      <c r="M5" t="s" s="19">
+        <v>58</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" t="s" s="16">
+        <v>59</v>
+      </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="20"/>
@@ -2268,72 +2484,80 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s" s="23">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s" s="24">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s" s="24">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" t="s" s="16">
-        <v>47</v>
+      <c r="E6" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="17">
+        <v>63</v>
       </c>
       <c r="G6" t="s" s="16">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s" s="16">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s" s="16">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s" s="16">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s" s="16">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s" s="17">
-        <v>53</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" t="s" s="18">
-        <v>54</v>
-      </c>
-      <c r="O6" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="L6" t="s" s="18">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s" s="19">
+        <v>70</v>
+      </c>
+      <c r="N6" t="s" s="19">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s" s="16">
+        <v>72</v>
+      </c>
       <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="33"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="36"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s" s="23">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s" s="16">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s" s="25">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s" s="28">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="26">
+      <c r="D7" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" t="s" s="16">
-        <v>57</v>
+      <c r="E7" t="s" s="16">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s" s="15">
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="16">
         <v>18</v>
@@ -2344,82 +2568,92 @@
       <c r="I7" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="J7" s="27"/>
+      <c r="J7" s="30"/>
       <c r="K7" t="s" s="16">
-        <v>58</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="L7" t="s" s="18">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s" s="19">
+        <v>79</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" t="s" s="16">
+        <v>80</v>
+      </c>
       <c r="P7" s="20"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="38"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="41"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s" s="23">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s" s="24">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s" s="14">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" t="s" s="16">
+        <v>84</v>
+      </c>
       <c r="F8" t="s" s="16">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="16">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s" s="16">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s" s="16">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s" s="16">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="16">
-        <v>67</v>
-      </c>
-      <c r="L8" t="s" s="39">
-        <v>68</v>
-      </c>
-      <c r="M8" t="s" s="18">
-        <v>69</v>
-      </c>
-      <c r="N8" t="s" s="18">
-        <v>70</v>
-      </c>
-      <c r="O8" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="L8" t="s" s="42">
+        <v>91</v>
+      </c>
+      <c r="M8" t="s" s="19">
+        <v>92</v>
+      </c>
+      <c r="N8" t="s" s="19">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s" s="16">
+        <v>94</v>
+      </c>
       <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="33"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="40"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="20"/>
       <c r="C9" s="24"/>
       <c r="D9" s="16"/>
@@ -2430,68 +2664,68 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="33"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="36"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="40"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="20"/>
       <c r="C10" s="24"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="27"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="9"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="33"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="36"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
@@ -2503,40 +2737,40 @@
       <c r="Z11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="33"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="36"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="40"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -2559,95 +2793,95 @@
       <c r="Z13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="40"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="42"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="21"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="49"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="50"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="20"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="33"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="36"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="42"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="21"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="49"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
+      <c r="N15" s="54"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="33"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="36"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="50"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="49"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="20"/>
-      <c r="N16" s="50"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="33"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="36"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="40"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="42"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="21"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -2656,54 +2890,54 @@
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="51"/>
+      <c r="N17" s="55"/>
       <c r="O17" s="20"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="33"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="36"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="42"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="21"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="49"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="20"/>
       <c r="N18" s="21"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="33"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="36"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="40"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="42"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="21"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -2716,22 +2950,22 @@
       <c r="O19" s="20"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="44"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="47"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="33"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="36"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="40"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="42"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
@@ -2740,7 +2974,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
-      <c r="N20" s="50"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
@@ -2755,11 +2989,11 @@
       <c r="Z20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="42"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="21"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
@@ -2783,11 +3017,11 @@
       <c r="Z21" s="22"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="40"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="42"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="21"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -2800,22 +3034,22 @@
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="21"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="33"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="36"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="40"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="42"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="21"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -2828,22 +3062,22 @@
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="33"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="36"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="40"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="42"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="21"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -2856,50 +3090,50 @@
       <c r="O24" s="20"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="33"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="36"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="40"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="42"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="21"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="53"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="20"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="20"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="44"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="47"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="33"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="36"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="40"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="42"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="21"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -2923,19 +3157,19 @@
       <c r="Z26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="40"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="42"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="21"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="19"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="M27" s="45"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
@@ -2951,11 +3185,11 @@
       <c r="Z27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="42"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="21"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -2979,11 +3213,11 @@
       <c r="Z28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="42"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -3007,11 +3241,11 @@
       <c r="Z29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="42"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="21"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -3035,11 +3269,11 @@
       <c r="Z30" s="22"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="42"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="21"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -3052,22 +3286,22 @@
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="21"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="33"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="36"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="42"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="21"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -3080,28 +3314,28 @@
       <c r="O32" s="20"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="44"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="47"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="9"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="33"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="36"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="54"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="49"/>
+      <c r="K33" s="52"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
@@ -3119,11 +3353,11 @@
       <c r="Z33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="42"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="21"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -3147,11 +3381,11 @@
       <c r="Z34" s="22"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="42"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="21"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
@@ -3175,11 +3409,11 @@
       <c r="Z35" s="22"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="42"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="21"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
@@ -3203,7 +3437,7 @@
       <c r="Z36" s="22"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="55"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -3220,18 +3454,18 @@
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="57"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="61"/>
       <c r="Z37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="40"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -3248,18 +3482,18 @@
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="44"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="47"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="X38" s="9"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="33"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="36"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="40"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -3287,7 +3521,7 @@
       <c r="Z39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="40"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -3304,18 +3538,18 @@
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="33"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="36"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="40"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -3326,24 +3560,24 @@
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
-      <c r="L41" s="49"/>
+      <c r="L41" s="52"/>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
       <c r="O41" s="20"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="44"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="47"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
       <c r="X41" s="9"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="33"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="36"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="40"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -3353,7 +3587,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="49"/>
+      <c r="K42" s="52"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
@@ -3371,7 +3605,7 @@
       <c r="Z42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="40"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -3388,18 +3622,18 @@
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
       <c r="Q43" s="21"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="33"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="51"/>
+      <c r="W43" s="51"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="36"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="58"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -3410,9 +3644,9 @@
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
-      <c r="L44" s="49"/>
+      <c r="L44" s="52"/>
       <c r="M44" s="20"/>
-      <c r="N44" s="50"/>
+      <c r="N44" s="53"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
       <c r="Q44" s="21"/>
@@ -3427,7 +3661,7 @@
       <c r="Z44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="40"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -3437,25 +3671,25 @@
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="49"/>
+      <c r="K45" s="52"/>
       <c r="L45" s="20"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
       <c r="O45" s="20"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="33"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="36"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="40"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -3472,18 +3706,18 @@
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="21"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="33"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="36"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="40"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -3500,18 +3734,18 @@
       <c r="O47" s="20"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="33"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="36"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="40"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
@@ -3528,18 +3762,18 @@
       <c r="O48" s="20"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="33"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="36"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="40"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -3552,22 +3786,22 @@
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
-      <c r="N49" s="50"/>
+      <c r="N49" s="53"/>
       <c r="O49" s="20"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="33"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="36"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="40"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -3584,20 +3818,20 @@
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
       <c r="Q50" s="20"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="33"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="36"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="40"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="20"/>
-      <c r="C51" s="19"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
@@ -3608,22 +3842,22 @@
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="21"/>
-      <c r="N51" s="50"/>
+      <c r="N51" s="53"/>
       <c r="O51" s="20"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="44"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="47"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
       <c r="V51" s="8"/>
       <c r="W51" s="8"/>
       <c r="X51" s="9"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="33"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="36"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="40"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -3651,7 +3885,7 @@
       <c r="Z52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="40"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -3679,7 +3913,7 @@
       <c r="Z53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="40"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -3696,18 +3930,18 @@
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
       <c r="Q54" s="21"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
-      <c r="X54" s="32"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="33"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="36"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="40"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -3724,18 +3958,18 @@
       <c r="O55" s="20"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="33"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="36"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="40"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -3752,18 +3986,18 @@
       <c r="O56" s="20"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="33"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="36"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="40"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -3776,22 +4010,22 @@
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
       <c r="M57" s="21"/>
-      <c r="N57" s="59"/>
+      <c r="N57" s="63"/>
       <c r="O57" s="20"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="44"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="47"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
       <c r="X57" s="9"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="33"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="36"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="40"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -3819,7 +4053,7 @@
       <c r="Z58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="40"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -3847,7 +4081,7 @@
       <c r="Z59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="40"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -3875,7 +4109,7 @@
       <c r="Z60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="40"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -3903,7 +4137,7 @@
       <c r="Z61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="40"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -3931,7 +4165,7 @@
       <c r="Z62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="40"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -3959,7 +4193,7 @@
       <c r="Z63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="40"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -3987,7 +4221,7 @@
       <c r="Z64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="40"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -4015,7 +4249,7 @@
       <c r="Z65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="40"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -4043,7 +4277,7 @@
       <c r="Z66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="40"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -4071,34 +4305,40 @@
       <c r="Z67" s="22"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="60"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="61"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="61"/>
-      <c r="U68" s="61"/>
-      <c r="V68" s="61"/>
-      <c r="W68" s="61"/>
-      <c r="X68" s="61"/>
-      <c r="Y68" s="61"/>
-      <c r="Z68" s="62"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+      <c r="O68" s="65"/>
+      <c r="P68" s="65"/>
+      <c r="Q68" s="65"/>
+      <c r="R68" s="65"/>
+      <c r="S68" s="65"/>
+      <c r="T68" s="65"/>
+      <c r="U68" s="65"/>
+      <c r="V68" s="65"/>
+      <c r="W68" s="65"/>
+      <c r="X68" s="65"/>
+      <c r="Y68" s="65"/>
+      <c r="Z68" s="66"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="E3" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="E4" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="E8" r:id="rId4" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
